--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -498,7 +498,7 @@
         <v>-0.343131605753804</v>
       </c>
       <c r="H2" t="n">
-        <v>1.000005</v>
+        <v>1.0000001</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +524,7 @@
         <v>-0.343131605753804</v>
       </c>
       <c r="H3" t="n">
-        <v>2.47330178160369</v>
+        <v>0.585978543570586</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
         <v>-0.343131605753804</v>
       </c>
       <c r="H4" t="n">
-        <v>0.857582602700699</v>
+        <v>0.168869037292414</v>
       </c>
     </row>
     <row r="5">
@@ -576,7 +576,7 @@
         <v>-0.343131605753804</v>
       </c>
       <c r="H5" t="n">
-        <v>1.05915690038122</v>
+        <v>0.172570108246066</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>-0.479157331745232</v>
       </c>
       <c r="H6" t="n">
-        <v>0.837294971811817</v>
+        <v>0.15797271450584</v>
       </c>
     </row>
     <row r="7">
@@ -628,7 +628,7 @@
         <v>-0.479157331745232</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0433620099516494</v>
+        <v>0.008114736840505701</v>
       </c>
     </row>
     <row r="8">
@@ -654,7 +654,7 @@
         <v>-0.479157331745232</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0030224648142249</v>
+        <v>0.0005653022476393</v>
       </c>
     </row>
     <row r="9">
@@ -680,7 +680,7 @@
         <v>-0.479157331745232</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000139201768837</v>
+        <v>2.60347196528539e-05</v>
       </c>
     </row>
     <row r="10">
@@ -706,7 +706,7 @@
         <v>-0.479157331745232</v>
       </c>
       <c r="H10" t="n">
-        <v>6.18214990311117e-06</v>
+        <v>1.15623784688169e-06</v>
       </c>
     </row>
     <row r="11">
@@ -732,7 +732,7 @@
         <v>-0.479157331745232</v>
       </c>
       <c r="H11" t="n">
-        <v>2.74090023566487e-07</v>
+        <v>5.12626266624454e-08</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,25 +480,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.74750426793686</v>
+        <v>-5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>0.177575553667127</v>
+        <v>14.9990234375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0353660793802402</v>
+        <v>14.9990234375</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.343131605753804</v>
+        <v>-1.20892581961463e+24</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0000001</v>
+        <v>1.000005</v>
       </c>
     </row>
     <row r="3">
@@ -506,233 +506,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.22080604954056</v>
+        <v>-5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.74750426793686</v>
+        <v>-5</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07503642493777279</v>
+        <v>14.9990234375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.177575553667127</v>
+        <v>14.9990234375</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.343131605753804</v>
+        <v>-1.20892581961463e+24</v>
       </c>
       <c r="H3" t="n">
-        <v>0.585978543570586</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5.07838865224126</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.22080604954056</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.12696453852951</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.07503642493777279</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.343131605753804</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.168869037292414</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6.13754555262248</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.07838865224126</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.479157331745232</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.12696453852951</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.343131605753804</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.172570108246066</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.30025058081066</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.07838865224126</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.13754555262248</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0261699992136136</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.12696453852951</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.479157331745232</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.15797271450584</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5.34361259076231</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.30025058081066</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.13754555262248</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0018310999551619</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0261699992136136</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.479157331745232</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.008114736840505701</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5.34663505557653</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.34361259076231</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.13754555262248</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.434745738594709e-05</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0018310999551619</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.479157331745232</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0005653022476393</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.34677425734537</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.34663505557653</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6.13754555262248</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.74602066122165e-06</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8.434745738594709e-05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0.479157331745232</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.60347196528539e-05</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5.34678043949527</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.34677425734537</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.13754555262248</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.6608255437589e-07</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.74602066122165e-06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.479157331745232</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.15623784688169e-06</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.3467807135853</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.34678043949527</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.13754555262248</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.36283012336969e-09</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.6608255437589e-07</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.479157331745232</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.12626266624454e-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,95 +436,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>x_m</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>x_i</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>x_s</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>f_m</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>f_i</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>f_s</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
+          <t>intervalo</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.9990234375</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14.9990234375</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1.20892581961463e+24</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.000005</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3" t="n">
-        <v>14.9990234375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>14.9990234375</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.20892581961463e+24</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,13 +436,95 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>intervalo</t>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>x_m</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>x_i</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>x_s</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f_m</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>f_i</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f_s</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" t="n">
+        <v>389.999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>389.999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.20892581961463e+24</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.000005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="n">
+        <v>389.999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>389.999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.20892581961463e+24</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,95 +436,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>x_m</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>x_i</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>x_s</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>f_m</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>f_i</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>f_s</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
+          <t>intervalo</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E2" t="n">
-        <v>389.999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>389.999999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1.20892581961463e+24</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.000005</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3" t="n">
-        <v>389.999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>389.999999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.20892581961463e+24</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
